--- a/Modulo5/src/out/info_estados/Pennsylvania.xlsx
+++ b/Modulo5/src/out/info_estados/Pennsylvania.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="93">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>P</t>
@@ -722,14 +728,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>4067</v>
       </c>
       <c r="M2">
         <v>42001</v>
@@ -766,14 +772,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3847</v>
       </c>
       <c r="M3">
         <v>42001</v>
@@ -810,14 +816,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>9755</v>
       </c>
       <c r="M4">
         <v>42001</v>
@@ -854,14 +860,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>91</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>2688</v>
       </c>
       <c r="M5">
         <v>42001</v>
@@ -898,14 +904,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>4059</v>
       </c>
       <c r="M6">
         <v>42001</v>
@@ -942,14 +948,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>98013</v>
       </c>
       <c r="M7">
         <v>42003</v>
@@ -986,14 +992,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>122400</v>
       </c>
       <c r="M8">
         <v>42003</v>
@@ -1030,14 +1036,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>61005</v>
       </c>
       <c r="M9">
         <v>42003</v>
@@ -1074,14 +1080,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>91</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>33046</v>
       </c>
       <c r="M10">
         <v>42003</v>
@@ -1118,14 +1124,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>91</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>23884</v>
       </c>
       <c r="M11">
         <v>42003</v>
@@ -1162,14 +1168,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3016</v>
       </c>
       <c r="M12">
         <v>42005</v>
@@ -1206,14 +1212,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>90</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>2925</v>
       </c>
       <c r="M13">
         <v>42005</v>
@@ -1250,14 +1256,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>91</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>7579</v>
       </c>
       <c r="M14">
         <v>42005</v>
@@ -1294,14 +1300,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>91</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>1310</v>
       </c>
       <c r="M15">
         <v>42005</v>
@@ -1338,14 +1344,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>91</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>2155</v>
       </c>
       <c r="M16">
         <v>42005</v>
@@ -1382,14 +1388,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>9564</v>
       </c>
       <c r="M17">
         <v>42007</v>
@@ -1426,14 +1432,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>12964</v>
       </c>
       <c r="M18">
         <v>42007</v>
@@ -1470,14 +1476,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>91</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>11179</v>
       </c>
       <c r="M19">
         <v>42007</v>
@@ -1514,14 +1520,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>91</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3573</v>
       </c>
       <c r="M20">
         <v>42007</v>
@@ -1558,14 +1564,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>91</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>4332</v>
       </c>
       <c r="M21">
         <v>42007</v>
@@ -1602,14 +1608,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>90</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>1383</v>
       </c>
       <c r="M22">
         <v>42009</v>
@@ -1646,14 +1652,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>90</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>1388</v>
       </c>
       <c r="M23">
         <v>42009</v>
@@ -1690,14 +1696,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>91</v>
       </c>
       <c r="K24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>6541</v>
       </c>
       <c r="M24">
         <v>42009</v>
@@ -1734,14 +1740,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>91</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>958</v>
       </c>
       <c r="M25">
         <v>42009</v>
@@ -1778,14 +1784,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>91</v>
       </c>
       <c r="K26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>2546</v>
       </c>
       <c r="M26">
         <v>42009</v>
@@ -1822,14 +1828,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>90</v>
       </c>
       <c r="K27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>21519</v>
       </c>
       <c r="M27">
         <v>42011</v>
@@ -1866,14 +1872,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>90</v>
       </c>
       <c r="K28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>20471</v>
       </c>
       <c r="M28">
         <v>42011</v>
@@ -1910,14 +1916,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>91</v>
       </c>
       <c r="K29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>28720</v>
       </c>
       <c r="M29">
         <v>42011</v>
@@ -1954,14 +1960,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>91</v>
       </c>
       <c r="K30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>7920</v>
       </c>
       <c r="M30">
         <v>42011</v>
@@ -1998,14 +2004,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>91</v>
       </c>
       <c r="K31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>10344</v>
       </c>
       <c r="M31">
         <v>42011</v>
@@ -2042,14 +2048,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>90</v>
       </c>
       <c r="K32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>4246</v>
       </c>
       <c r="M32">
         <v>42013</v>
@@ -2086,14 +2092,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>90</v>
       </c>
       <c r="K33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3817</v>
       </c>
       <c r="M33">
         <v>42013</v>
@@ -2130,14 +2136,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>91</v>
       </c>
       <c r="K34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>12871</v>
       </c>
       <c r="M34">
         <v>42013</v>
@@ -2174,14 +2180,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>91</v>
       </c>
       <c r="K35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>2514</v>
       </c>
       <c r="M35">
         <v>42013</v>
@@ -2218,14 +2224,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>91</v>
       </c>
       <c r="K36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>5082</v>
       </c>
       <c r="M36">
         <v>42013</v>
@@ -2262,14 +2268,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>90</v>
       </c>
       <c r="K37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>1793</v>
       </c>
       <c r="M37">
         <v>42015</v>
@@ -2306,14 +2312,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>90</v>
       </c>
       <c r="K38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>1762</v>
       </c>
       <c r="M38">
         <v>42015</v>
@@ -2350,14 +2356,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>91</v>
       </c>
       <c r="K39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>6502</v>
       </c>
       <c r="M39">
         <v>42015</v>
@@ -2394,14 +2400,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>91</v>
       </c>
       <c r="K40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>1509</v>
       </c>
       <c r="M40">
         <v>42015</v>
@@ -2438,14 +2444,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>91</v>
       </c>
       <c r="K41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2353</v>
       </c>
       <c r="M41">
         <v>42015</v>
@@ -2482,14 +2488,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>90</v>
       </c>
       <c r="K42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>36112</v>
       </c>
       <c r="M42">
         <v>42017</v>
@@ -2526,14 +2532,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>90</v>
       </c>
       <c r="K43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>46877</v>
       </c>
       <c r="M43">
         <v>42017</v>
@@ -2570,14 +2576,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>91</v>
       </c>
       <c r="K44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>51434</v>
       </c>
       <c r="M44">
         <v>42017</v>
@@ -2614,14 +2620,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>91</v>
       </c>
       <c r="K45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>20218</v>
       </c>
       <c r="M45">
         <v>42017</v>
@@ -2658,14 +2664,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>91</v>
       </c>
       <c r="K46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>17123</v>
       </c>
       <c r="M46">
         <v>42017</v>
@@ -2702,14 +2708,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>90</v>
       </c>
       <c r="K47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>7607</v>
       </c>
       <c r="M47">
         <v>42019</v>
@@ -2746,14 +2752,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>90</v>
       </c>
       <c r="K48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>8530</v>
       </c>
       <c r="M48">
         <v>42019</v>
@@ -2790,14 +2796,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>91</v>
       </c>
       <c r="K49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>19669</v>
       </c>
       <c r="M49">
         <v>42019</v>
@@ -2834,14 +2840,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>91</v>
       </c>
       <c r="K50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>6718</v>
       </c>
       <c r="M50">
         <v>42019</v>
@@ -2878,14 +2884,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>91</v>
       </c>
       <c r="K51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>7582</v>
       </c>
       <c r="M51">
         <v>42019</v>
@@ -2922,14 +2928,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>90</v>
       </c>
       <c r="K52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>8842</v>
       </c>
       <c r="M52">
         <v>42021</v>
@@ -2966,14 +2972,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>90</v>
       </c>
       <c r="K53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>8305</v>
       </c>
       <c r="M53">
         <v>42021</v>
@@ -3010,14 +3016,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>91</v>
       </c>
       <c r="K54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>10796</v>
       </c>
       <c r="M54">
         <v>42021</v>
@@ -3054,14 +3060,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>91</v>
       </c>
       <c r="K55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>1991</v>
       </c>
       <c r="M55">
         <v>42021</v>
@@ -3098,14 +3104,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>91</v>
       </c>
       <c r="K56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>3424</v>
       </c>
       <c r="M56">
         <v>42021</v>
@@ -3142,14 +3148,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>90</v>
       </c>
       <c r="K57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>229</v>
       </c>
       <c r="M57">
         <v>42023</v>
@@ -3186,14 +3192,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>90</v>
       </c>
       <c r="K58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="M58">
         <v>42023</v>
@@ -3230,14 +3236,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>91</v>
       </c>
       <c r="K59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>487</v>
       </c>
       <c r="M59">
         <v>42023</v>
@@ -3274,14 +3280,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>91</v>
       </c>
       <c r="K60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="M60">
         <v>42023</v>
@@ -3318,14 +3324,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>91</v>
       </c>
       <c r="K61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="M61">
         <v>42023</v>
@@ -3362,14 +3368,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>90</v>
       </c>
       <c r="K62" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3419</v>
       </c>
       <c r="M62">
         <v>42025</v>
@@ -3406,14 +3412,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>90</v>
       </c>
       <c r="K63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3335</v>
       </c>
       <c r="M63">
         <v>42025</v>
@@ -3450,14 +3456,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>91</v>
       </c>
       <c r="K64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>5978</v>
       </c>
       <c r="M64">
         <v>42025</v>
@@ -3494,14 +3500,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>91</v>
       </c>
       <c r="K65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>694</v>
       </c>
       <c r="M65">
         <v>42025</v>
@@ -3538,14 +3544,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>91</v>
       </c>
       <c r="K66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>1411</v>
       </c>
       <c r="M66">
         <v>42025</v>
@@ -3582,14 +3588,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>90</v>
       </c>
       <c r="K67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>10270</v>
       </c>
       <c r="M67">
         <v>42027</v>
@@ -3626,14 +3632,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>90</v>
       </c>
       <c r="K68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>8432</v>
       </c>
       <c r="M68">
         <v>42027</v>
@@ -3670,14 +3676,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>91</v>
       </c>
       <c r="K69" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>10017</v>
       </c>
       <c r="M69">
         <v>42027</v>
@@ -3714,14 +3720,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>91</v>
       </c>
       <c r="K70" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>4558</v>
       </c>
       <c r="M70">
         <v>42027</v>
@@ -3758,14 +3764,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>91</v>
       </c>
       <c r="K71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>5196</v>
       </c>
       <c r="M71">
         <v>42027</v>
@@ -3802,14 +3808,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>90</v>
       </c>
       <c r="K72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>26047</v>
       </c>
       <c r="M72">
         <v>42029</v>
@@ -3846,14 +3852,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>90</v>
       </c>
       <c r="K73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>32986</v>
       </c>
       <c r="M73">
         <v>42029</v>
@@ -3890,14 +3896,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>91</v>
       </c>
       <c r="K74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>35578</v>
       </c>
       <c r="M74">
         <v>42029</v>
@@ -3934,14 +3940,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>91</v>
       </c>
       <c r="K75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>23856</v>
       </c>
       <c r="M75">
         <v>42029</v>
@@ -3978,14 +3984,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>91</v>
       </c>
       <c r="K76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>14997</v>
       </c>
       <c r="M76">
         <v>42029</v>
@@ -4022,14 +4028,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>90</v>
       </c>
       <c r="K77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>1511</v>
       </c>
       <c r="M77">
         <v>42031</v>
@@ -4066,14 +4072,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>90</v>
       </c>
       <c r="K78" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>1529</v>
       </c>
       <c r="M78">
         <v>42031</v>
@@ -4110,14 +4116,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>91</v>
       </c>
       <c r="K79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>4225</v>
       </c>
       <c r="M79">
         <v>42031</v>
@@ -4154,14 +4160,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>91</v>
       </c>
       <c r="K80" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>1026</v>
       </c>
       <c r="M80">
         <v>42031</v>
@@ -4198,14 +4204,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>91</v>
       </c>
       <c r="K81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>1455</v>
       </c>
       <c r="M81">
         <v>42031</v>
@@ -4242,14 +4248,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>90</v>
       </c>
       <c r="K82" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>3319</v>
       </c>
       <c r="M82">
         <v>42033</v>
@@ -4286,14 +4292,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>90</v>
       </c>
       <c r="K83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>3085</v>
       </c>
       <c r="M83">
         <v>42033</v>
@@ -4330,14 +4336,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>91</v>
       </c>
       <c r="K84" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>7863</v>
       </c>
       <c r="M84">
         <v>42033</v>
@@ -4374,14 +4380,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>91</v>
       </c>
       <c r="K85" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>1372</v>
       </c>
       <c r="M85">
         <v>42033</v>
@@ -4418,14 +4424,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>91</v>
       </c>
       <c r="K86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>2240</v>
       </c>
       <c r="M86">
         <v>42033</v>
@@ -4462,14 +4468,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>90</v>
       </c>
       <c r="K87" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>1691</v>
       </c>
       <c r="M87">
         <v>42035</v>
@@ -4506,14 +4512,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>90</v>
       </c>
       <c r="K88" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>1648</v>
       </c>
       <c r="M88">
         <v>42035</v>
@@ -4550,14 +4556,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>91</v>
       </c>
       <c r="K89" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>3172</v>
       </c>
       <c r="M89">
         <v>42035</v>
@@ -4594,14 +4600,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>91</v>
       </c>
       <c r="K90" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>530</v>
       </c>
       <c r="M90">
         <v>42035</v>
@@ -4638,14 +4644,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>91</v>
       </c>
       <c r="K91" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>1018</v>
       </c>
       <c r="M91">
         <v>42035</v>
@@ -4682,14 +4688,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>90</v>
       </c>
       <c r="K92" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3456</v>
       </c>
       <c r="M92">
         <v>42037</v>
@@ -4726,14 +4732,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>90</v>
       </c>
       <c r="K93" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>2383</v>
       </c>
       <c r="M93">
         <v>42037</v>
@@ -4770,14 +4776,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>91</v>
       </c>
       <c r="K94" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>5817</v>
       </c>
       <c r="M94">
         <v>42037</v>
@@ -4814,14 +4820,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>91</v>
       </c>
       <c r="K95" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>1014</v>
       </c>
       <c r="M95">
         <v>42037</v>
@@ -4858,14 +4864,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>91</v>
       </c>
       <c r="K96" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>1639</v>
       </c>
       <c r="M96">
         <v>42037</v>
@@ -4902,14 +4908,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>90</v>
       </c>
       <c r="K97" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>3684</v>
       </c>
       <c r="M97">
         <v>42039</v>
@@ -4946,14 +4952,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>90</v>
       </c>
       <c r="K98" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>3560</v>
       </c>
       <c r="M98">
         <v>42039</v>
@@ -4990,14 +4996,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>91</v>
       </c>
       <c r="K99" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>7472</v>
       </c>
       <c r="M99">
         <v>42039</v>
@@ -5034,14 +5040,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>91</v>
       </c>
       <c r="K100" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>2205</v>
       </c>
       <c r="M100">
         <v>42039</v>
@@ -5078,14 +5084,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>91</v>
       </c>
       <c r="K101" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3471</v>
       </c>
       <c r="M101">
         <v>42039</v>
@@ -5122,14 +5128,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>90</v>
       </c>
       <c r="K102" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>11168</v>
       </c>
       <c r="M102">
         <v>42041</v>
@@ -5166,14 +5172,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>90</v>
       </c>
       <c r="K103" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>11998</v>
       </c>
       <c r="M103">
         <v>42041</v>
@@ -5210,14 +5216,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>91</v>
       </c>
       <c r="K104" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>22458</v>
       </c>
       <c r="M104">
         <v>42041</v>
@@ -5254,14 +5260,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>91</v>
       </c>
       <c r="K105" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>8631</v>
       </c>
       <c r="M105">
         <v>42041</v>
@@ -5298,14 +5304,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>91</v>
       </c>
       <c r="K106" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>11774</v>
       </c>
       <c r="M106">
         <v>42041</v>
@@ -5342,14 +5348,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>90</v>
       </c>
       <c r="K107" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>13710</v>
       </c>
       <c r="M107">
         <v>42043</v>
@@ -5386,14 +5392,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>90</v>
       </c>
       <c r="K108" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>18398</v>
       </c>
       <c r="M108">
         <v>42043</v>
@@ -5430,14 +5436,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>91</v>
       </c>
       <c r="K109" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>21254</v>
       </c>
       <c r="M109">
         <v>42043</v>
@@ -5474,14 +5480,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>91</v>
       </c>
       <c r="K110" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>7279</v>
       </c>
       <c r="M110">
         <v>42043</v>
@@ -5518,14 +5524,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>91</v>
       </c>
       <c r="K111" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>10149</v>
       </c>
       <c r="M111">
         <v>42043</v>
@@ -5562,14 +5568,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>90</v>
       </c>
       <c r="K112" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>29842</v>
       </c>
       <c r="M112">
         <v>42045</v>
@@ -5606,14 +5612,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>90</v>
       </c>
       <c r="K113" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>44776</v>
       </c>
       <c r="M113">
         <v>42045</v>
@@ -5650,14 +5656,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>91</v>
       </c>
       <c r="K114" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>42382</v>
       </c>
       <c r="M114">
         <v>42045</v>
@@ -5694,14 +5700,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>91</v>
       </c>
       <c r="K115" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>23007</v>
       </c>
       <c r="M115">
         <v>42045</v>
@@ -5738,14 +5744,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>91</v>
       </c>
       <c r="K116" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>13073</v>
       </c>
       <c r="M116">
         <v>42045</v>
@@ -5782,14 +5788,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>90</v>
       </c>
       <c r="K117" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>1792</v>
       </c>
       <c r="M117">
         <v>42047</v>
@@ -5826,14 +5832,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>90</v>
       </c>
       <c r="K118" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>1529</v>
       </c>
       <c r="M118">
         <v>42047</v>
@@ -5870,14 +5876,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>91</v>
       </c>
       <c r="K119" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>2648</v>
       </c>
       <c r="M119">
         <v>42047</v>
@@ -5914,14 +5920,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>91</v>
       </c>
       <c r="K120" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>557</v>
       </c>
       <c r="M120">
         <v>42047</v>
@@ -5958,14 +5964,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>91</v>
       </c>
       <c r="K121" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>639</v>
       </c>
       <c r="M121">
         <v>42047</v>
@@ -6002,14 +6008,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>90</v>
       </c>
       <c r="K122" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>17831</v>
       </c>
       <c r="M122">
         <v>42049</v>
@@ -6046,14 +6052,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>90</v>
       </c>
       <c r="K123" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>19512</v>
       </c>
       <c r="M123">
         <v>42049</v>
@@ -6090,14 +6096,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>91</v>
       </c>
       <c r="K124" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>15870</v>
       </c>
       <c r="M124">
         <v>42049</v>
@@ -6134,14 +6140,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>91</v>
       </c>
       <c r="K125" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>6118</v>
       </c>
       <c r="M125">
         <v>42049</v>
@@ -6178,14 +6184,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>91</v>
       </c>
       <c r="K126" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>7510</v>
       </c>
       <c r="M126">
         <v>42049</v>
@@ -6222,14 +6228,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>90</v>
       </c>
       <c r="K127" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>6452</v>
       </c>
       <c r="M127">
         <v>42051</v>
@@ -6266,14 +6272,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>90</v>
       </c>
       <c r="K128" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>9185</v>
       </c>
       <c r="M128">
         <v>42051</v>
@@ -6310,14 +6316,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>91</v>
       </c>
       <c r="K129" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>8525</v>
       </c>
       <c r="M129">
         <v>42051</v>
@@ -6354,14 +6360,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>91</v>
       </c>
       <c r="K130" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>1320</v>
       </c>
       <c r="M130">
         <v>42051</v>
@@ -6398,14 +6404,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>91</v>
       </c>
       <c r="K131" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>2216</v>
       </c>
       <c r="M131">
         <v>42051</v>
@@ -6442,14 +6448,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>90</v>
       </c>
       <c r="K132" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="M132">
         <v>42053</v>
@@ -6486,14 +6492,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>90</v>
       </c>
       <c r="K133" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="M133">
         <v>42053</v>
@@ -6530,14 +6536,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>91</v>
       </c>
       <c r="K134" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>598</v>
       </c>
       <c r="M134">
         <v>42053</v>
@@ -6574,14 +6580,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>91</v>
       </c>
       <c r="K135" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="M135">
         <v>42053</v>
@@ -6618,14 +6624,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>91</v>
       </c>
       <c r="K136" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="M136">
         <v>42053</v>
@@ -6662,14 +6668,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>90</v>
       </c>
       <c r="K137" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>4274</v>
       </c>
       <c r="M137">
         <v>42055</v>
@@ -6706,14 +6712,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>90</v>
       </c>
       <c r="K138" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>4701</v>
       </c>
       <c r="M138">
         <v>42055</v>
@@ -6750,14 +6756,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>91</v>
       </c>
       <c r="K139" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>15632</v>
       </c>
       <c r="M139">
         <v>42055</v>
@@ -6794,14 +6800,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>91</v>
       </c>
       <c r="K140" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3661</v>
       </c>
       <c r="M140">
         <v>42055</v>
@@ -6838,14 +6844,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>91</v>
       </c>
       <c r="K141" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>6938</v>
       </c>
       <c r="M141">
         <v>42055</v>
@@ -6882,14 +6888,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>90</v>
       </c>
       <c r="K142" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>365</v>
       </c>
       <c r="M142">
         <v>42057</v>
@@ -6926,14 +6932,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>90</v>
       </c>
       <c r="K143" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="M143">
         <v>42057</v>
@@ -6970,14 +6976,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>91</v>
       </c>
       <c r="K144" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>1784</v>
       </c>
       <c r="M144">
         <v>42057</v>
@@ -7014,14 +7020,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>91</v>
       </c>
       <c r="K145" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="M145">
         <v>42057</v>
@@ -7058,14 +7064,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>91</v>
       </c>
       <c r="K146" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>657</v>
       </c>
       <c r="M146">
         <v>42057</v>
@@ -7102,14 +7108,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>90</v>
       </c>
       <c r="K147" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>1873</v>
       </c>
       <c r="M147">
         <v>42059</v>
@@ -7146,14 +7152,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>90</v>
       </c>
       <c r="K148" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>2167</v>
       </c>
       <c r="M148">
         <v>42059</v>
@@ -7190,14 +7196,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>91</v>
       </c>
       <c r="K149" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>2479</v>
       </c>
       <c r="M149">
         <v>42059</v>
@@ -7234,14 +7240,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>91</v>
       </c>
       <c r="K150" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>414</v>
       </c>
       <c r="M150">
         <v>42059</v>
@@ -7278,14 +7284,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>91</v>
       </c>
       <c r="K151" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>820</v>
       </c>
       <c r="M151">
         <v>42059</v>
@@ -7322,14 +7328,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>90</v>
       </c>
       <c r="K152" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>1665</v>
       </c>
       <c r="M152">
         <v>42061</v>
@@ -7366,14 +7372,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>90</v>
       </c>
       <c r="K153" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>1303</v>
       </c>
       <c r="M153">
         <v>42061</v>
@@ -7410,14 +7416,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>91</v>
       </c>
       <c r="K154" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>5231</v>
       </c>
       <c r="M154">
         <v>42061</v>
@@ -7454,14 +7460,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>91</v>
       </c>
       <c r="K155" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>982</v>
       </c>
       <c r="M155">
         <v>42061</v>
@@ -7498,14 +7504,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>91</v>
       </c>
       <c r="K156" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>1881</v>
       </c>
       <c r="M156">
         <v>42061</v>
@@ -7542,14 +7548,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>90</v>
       </c>
       <c r="K157" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>3655</v>
       </c>
       <c r="M157">
         <v>42063</v>
@@ -7586,14 +7592,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>90</v>
       </c>
       <c r="K158" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>3916</v>
       </c>
       <c r="M158">
         <v>42063</v>
@@ -7630,14 +7636,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>91</v>
       </c>
       <c r="K159" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>7586</v>
       </c>
       <c r="M159">
         <v>42063</v>
@@ -7674,14 +7680,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>91</v>
       </c>
       <c r="K160" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>1752</v>
       </c>
       <c r="M160">
         <v>42063</v>
@@ -7718,14 +7724,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>91</v>
       </c>
       <c r="K161" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>2482</v>
       </c>
       <c r="M161">
         <v>42063</v>
@@ -7762,14 +7768,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>90</v>
       </c>
       <c r="K162" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>1487</v>
       </c>
       <c r="M162">
         <v>42065</v>
@@ -7806,14 +7812,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>90</v>
       </c>
       <c r="K163" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>1205</v>
       </c>
       <c r="M163">
         <v>42065</v>
@@ -7850,14 +7856,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>91</v>
       </c>
       <c r="K164" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>5103</v>
       </c>
       <c r="M164">
         <v>42065</v>
@@ -7894,14 +7900,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>91</v>
       </c>
       <c r="K165" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>1003</v>
       </c>
       <c r="M165">
         <v>42065</v>
@@ -7938,14 +7944,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>91</v>
       </c>
       <c r="K166" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>1452</v>
       </c>
       <c r="M166">
         <v>42065</v>
@@ -7982,14 +7988,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>90</v>
       </c>
       <c r="K167" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>742</v>
       </c>
       <c r="M167">
         <v>42067</v>
@@ -8026,14 +8032,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>90</v>
       </c>
       <c r="K168" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>639</v>
       </c>
       <c r="M168">
         <v>42067</v>
@@ -8070,14 +8076,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>91</v>
       </c>
       <c r="K169" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>2391</v>
       </c>
       <c r="M169">
         <v>42067</v>
@@ -8114,14 +8120,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>91</v>
       </c>
       <c r="K170" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>551</v>
       </c>
       <c r="M170">
         <v>42067</v>
@@ -8158,14 +8164,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>91</v>
       </c>
       <c r="K171" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>1161</v>
       </c>
       <c r="M171">
         <v>42067</v>
@@ -8202,14 +8208,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>90</v>
       </c>
       <c r="K172" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>17266</v>
       </c>
       <c r="M172">
         <v>42069</v>
@@ -8246,14 +8252,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>90</v>
       </c>
       <c r="K173" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>22972</v>
       </c>
       <c r="M173">
         <v>42069</v>
@@ -8290,14 +8296,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>91</v>
       </c>
       <c r="K174" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>14407</v>
       </c>
       <c r="M174">
         <v>42069</v>
@@ -8334,14 +8340,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>91</v>
       </c>
       <c r="K175" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>2600</v>
       </c>
       <c r="M175">
         <v>42069</v>
@@ -8378,14 +8384,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>91</v>
       </c>
       <c r="K176" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>3356</v>
       </c>
       <c r="M176">
         <v>42069</v>
@@ -8422,14 +8428,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>90</v>
       </c>
       <c r="K177" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>21203</v>
       </c>
       <c r="M177">
         <v>42071</v>
@@ -8466,14 +8472,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>90</v>
       </c>
       <c r="K178" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>19781</v>
       </c>
       <c r="M178">
         <v>42071</v>
@@ -8510,14 +8516,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>91</v>
       </c>
       <c r="K179" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>38172</v>
       </c>
       <c r="M179">
         <v>42071</v>
@@ -8554,14 +8560,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>91</v>
       </c>
       <c r="K180" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>18712</v>
       </c>
       <c r="M180">
         <v>42071</v>
@@ -8598,14 +8604,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>91</v>
       </c>
       <c r="K181" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>27389</v>
       </c>
       <c r="M181">
         <v>42071</v>
@@ -8642,14 +8648,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>90</v>
       </c>
       <c r="K182" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>3973</v>
       </c>
       <c r="M182">
         <v>42073</v>
@@ -8686,14 +8692,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>90</v>
       </c>
       <c r="K183" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>5843</v>
       </c>
       <c r="M183">
         <v>42073</v>
@@ -8730,14 +8736,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>91</v>
       </c>
       <c r="K184" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>6965</v>
       </c>
       <c r="M184">
         <v>42073</v>
@@ -8774,14 +8780,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>91</v>
       </c>
       <c r="K185" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>1795</v>
       </c>
       <c r="M185">
         <v>42073</v>
@@ -8818,14 +8824,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>91</v>
       </c>
       <c r="K186" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>2624</v>
       </c>
       <c r="M186">
         <v>42073</v>
@@ -8862,14 +8868,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>90</v>
       </c>
       <c r="K187" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>4483</v>
       </c>
       <c r="M187">
         <v>42075</v>
@@ -8906,14 +8912,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>90</v>
       </c>
       <c r="K188" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>4530</v>
       </c>
       <c r="M188">
         <v>42075</v>
@@ -8950,14 +8956,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>91</v>
       </c>
       <c r="K189" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>13491</v>
       </c>
       <c r="M189">
         <v>42075</v>
@@ -8994,14 +9000,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>91</v>
       </c>
       <c r="K190" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3650</v>
       </c>
       <c r="M190">
         <v>42075</v>
@@ -9038,14 +9044,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>91</v>
       </c>
       <c r="K191" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>6615</v>
       </c>
       <c r="M191">
         <v>42075</v>
@@ -9082,14 +9088,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>90</v>
       </c>
       <c r="K192" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>17743</v>
       </c>
       <c r="M192">
         <v>42077</v>
@@ -9126,14 +9132,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>90</v>
       </c>
       <c r="K193" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>19768</v>
       </c>
       <c r="M193">
         <v>42077</v>
@@ -9170,14 +9176,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>91</v>
       </c>
       <c r="K194" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>20892</v>
       </c>
       <c r="M194">
         <v>42077</v>
@@ -9214,14 +9220,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>91</v>
       </c>
       <c r="K195" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>7065</v>
       </c>
       <c r="M195">
         <v>42077</v>
@@ -9258,14 +9264,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>91</v>
       </c>
       <c r="K196" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>8811</v>
       </c>
       <c r="M196">
         <v>42077</v>
@@ -9302,14 +9308,14 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>90</v>
       </c>
       <c r="K197" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>18525</v>
       </c>
       <c r="M197">
         <v>42079</v>
@@ -9346,14 +9352,14 @@
       <c r="I198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>90</v>
       </c>
       <c r="K198" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>20531</v>
       </c>
       <c r="M198">
         <v>42079</v>
@@ -9390,14 +9396,14 @@
       <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>91</v>
       </c>
       <c r="K199" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>28661</v>
       </c>
       <c r="M199">
         <v>42079</v>
@@ -9434,14 +9440,14 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>91</v>
       </c>
       <c r="K200" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>3357</v>
       </c>
       <c r="M200">
         <v>42079</v>
@@ -9478,14 +9484,14 @@
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>91</v>
       </c>
       <c r="K201" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>4622</v>
       </c>
       <c r="M201">
         <v>42079</v>
@@ -9522,14 +9528,14 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>90</v>
       </c>
       <c r="K202" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>4718</v>
       </c>
       <c r="M202">
         <v>42081</v>
@@ -9566,14 +9572,14 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>90</v>
       </c>
       <c r="K203" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>3804</v>
       </c>
       <c r="M203">
         <v>42081</v>
@@ -9610,14 +9616,14 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>91</v>
       </c>
       <c r="K204" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>12899</v>
       </c>
       <c r="M204">
         <v>42081</v>
@@ -9654,14 +9660,14 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>91</v>
       </c>
       <c r="K205" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>2206</v>
       </c>
       <c r="M205">
         <v>42081</v>
@@ -9698,14 +9704,14 @@
       <c r="I206">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>3</v>
+      <c r="J206" t="s">
+        <v>91</v>
       </c>
       <c r="K206" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>5344</v>
       </c>
       <c r="M206">
         <v>42081</v>
@@ -9742,14 +9748,14 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>3</v>
+      <c r="J207" t="s">
+        <v>90</v>
       </c>
       <c r="K207" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>1168</v>
       </c>
       <c r="M207">
         <v>42083</v>
@@ -9786,14 +9792,14 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>3</v>
+      <c r="J208" t="s">
+        <v>90</v>
       </c>
       <c r="K208" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>1014</v>
       </c>
       <c r="M208">
         <v>42083</v>
@@ -9830,14 +9836,14 @@
       <c r="I209">
         <v>1</v>
       </c>
-      <c r="J209">
-        <v>3</v>
+      <c r="J209" t="s">
+        <v>91</v>
       </c>
       <c r="K209" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>3846</v>
       </c>
       <c r="M209">
         <v>42083</v>
@@ -9874,14 +9880,14 @@
       <c r="I210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>3</v>
+      <c r="J210" t="s">
+        <v>91</v>
       </c>
       <c r="K210" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>928</v>
       </c>
       <c r="M210">
         <v>42083</v>
@@ -9918,14 +9924,14 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
-        <v>3</v>
+      <c r="J211" t="s">
+        <v>91</v>
       </c>
       <c r="K211" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>1109</v>
       </c>
       <c r="M211">
         <v>42083</v>
@@ -9962,14 +9968,14 @@
       <c r="I212">
         <v>1</v>
       </c>
-      <c r="J212">
-        <v>3</v>
+      <c r="J212" t="s">
+        <v>90</v>
       </c>
       <c r="K212" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>4616</v>
       </c>
       <c r="M212">
         <v>42085</v>
@@ -10006,14 +10012,14 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3</v>
+      <c r="J213" t="s">
+        <v>90</v>
       </c>
       <c r="K213" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>6324</v>
       </c>
       <c r="M213">
         <v>42085</v>
@@ -10050,14 +10056,14 @@
       <c r="I214">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>3</v>
+      <c r="J214" t="s">
+        <v>91</v>
       </c>
       <c r="K214" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>8279</v>
       </c>
       <c r="M214">
         <v>42085</v>
@@ -10094,14 +10100,14 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>3</v>
+      <c r="J215" t="s">
+        <v>91</v>
       </c>
       <c r="K215" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>3315</v>
       </c>
       <c r="M215">
         <v>42085</v>
@@ -10138,14 +10144,14 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>3</v>
+      <c r="J216" t="s">
+        <v>91</v>
       </c>
       <c r="K216" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>2992</v>
       </c>
       <c r="M216">
         <v>42085</v>
@@ -10182,14 +10188,14 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>3</v>
+      <c r="J217" t="s">
+        <v>90</v>
       </c>
       <c r="K217" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>1243</v>
       </c>
       <c r="M217">
         <v>42087</v>
@@ -10226,14 +10232,14 @@
       <c r="I218">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>3</v>
+      <c r="J218" t="s">
+        <v>90</v>
       </c>
       <c r="K218" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>1202</v>
       </c>
       <c r="M218">
         <v>42087</v>
@@ -10270,14 +10276,14 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>3</v>
+      <c r="J219" t="s">
+        <v>91</v>
       </c>
       <c r="K219" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>4311</v>
       </c>
       <c r="M219">
         <v>42087</v>
@@ -10314,14 +10320,14 @@
       <c r="I220">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3</v>
+      <c r="J220" t="s">
+        <v>91</v>
       </c>
       <c r="K220" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>1042</v>
       </c>
       <c r="M220">
         <v>42087</v>
@@ -10358,14 +10364,14 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>3</v>
+      <c r="J221" t="s">
+        <v>91</v>
       </c>
       <c r="K221" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>1789</v>
       </c>
       <c r="M221">
         <v>42087</v>
@@ -10402,14 +10408,14 @@
       <c r="I222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3</v>
+      <c r="J222" t="s">
+        <v>90</v>
       </c>
       <c r="K222" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>6796</v>
       </c>
       <c r="M222">
         <v>42089</v>
@@ -10446,14 +10452,14 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>3</v>
+      <c r="J223" t="s">
+        <v>90</v>
       </c>
       <c r="K223" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>7902</v>
       </c>
       <c r="M223">
         <v>42089</v>
@@ -10490,14 +10496,14 @@
       <c r="I224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>3</v>
+      <c r="J224" t="s">
+        <v>91</v>
       </c>
       <c r="K224" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>10017</v>
       </c>
       <c r="M224">
         <v>42089</v>
@@ -10534,14 +10540,14 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>3</v>
+      <c r="J225" t="s">
+        <v>91</v>
       </c>
       <c r="K225" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>1702</v>
       </c>
       <c r="M225">
         <v>42089</v>
@@ -10578,14 +10584,14 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>3</v>
+      <c r="J226" t="s">
+        <v>91</v>
       </c>
       <c r="K226" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>2434</v>
       </c>
       <c r="M226">
         <v>42089</v>
@@ -10622,14 +10628,14 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>3</v>
+      <c r="J227" t="s">
+        <v>90</v>
       </c>
       <c r="K227" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>51914</v>
       </c>
       <c r="M227">
         <v>42091</v>
@@ -10666,14 +10672,14 @@
       <c r="I228">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>3</v>
+      <c r="J228" t="s">
+        <v>90</v>
       </c>
       <c r="K228" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>75334</v>
       </c>
       <c r="M228">
         <v>42091</v>
@@ -10710,14 +10716,14 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>3</v>
+      <c r="J229" t="s">
+        <v>91</v>
       </c>
       <c r="K229" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>51445</v>
       </c>
       <c r="M229">
         <v>42091</v>
@@ -10754,14 +10760,14 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>3</v>
+      <c r="J230" t="s">
+        <v>91</v>
       </c>
       <c r="K230" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>31229</v>
       </c>
       <c r="M230">
         <v>42091</v>
@@ -10798,14 +10804,14 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>3</v>
+      <c r="J231" t="s">
+        <v>91</v>
       </c>
       <c r="K231" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>21396</v>
       </c>
       <c r="M231">
         <v>42091</v>
@@ -10842,14 +10848,14 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3</v>
+      <c r="J232" t="s">
+        <v>90</v>
       </c>
       <c r="K232" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>888</v>
       </c>
       <c r="M232">
         <v>42093</v>
@@ -10886,14 +10892,14 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>3</v>
+      <c r="J233" t="s">
+        <v>90</v>
       </c>
       <c r="K233" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>846</v>
       </c>
       <c r="M233">
         <v>42093</v>
@@ -10930,14 +10936,14 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>3</v>
+      <c r="J234" t="s">
+        <v>91</v>
       </c>
       <c r="K234" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>1745</v>
       </c>
       <c r="M234">
         <v>42093</v>
@@ -10974,14 +10980,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235">
-        <v>3</v>
+      <c r="J235" t="s">
+        <v>91</v>
       </c>
       <c r="K235" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>512</v>
       </c>
       <c r="M235">
         <v>42093</v>
@@ -11018,14 +11024,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>3</v>
+      <c r="J236" t="s">
+        <v>91</v>
       </c>
       <c r="K236" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>617</v>
       </c>
       <c r="M236">
         <v>42093</v>
@@ -11062,14 +11068,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>3</v>
+      <c r="J237" t="s">
+        <v>90</v>
       </c>
       <c r="K237" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>16625</v>
       </c>
       <c r="M237">
         <v>42095</v>
@@ -11106,14 +11112,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>3</v>
+      <c r="J238" t="s">
+        <v>90</v>
       </c>
       <c r="K238" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>17805</v>
       </c>
       <c r="M238">
         <v>42095</v>
@@ -11150,14 +11156,14 @@
       <c r="I239">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>3</v>
+      <c r="J239" t="s">
+        <v>91</v>
       </c>
       <c r="K239" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>19286</v>
       </c>
       <c r="M239">
         <v>42095</v>
@@ -11194,14 +11200,14 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3</v>
+      <c r="J240" t="s">
+        <v>91</v>
       </c>
       <c r="K240" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>4913</v>
       </c>
       <c r="M240">
         <v>42095</v>
@@ -11238,14 +11244,14 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>3</v>
+      <c r="J241" t="s">
+        <v>91</v>
       </c>
       <c r="K241" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>6858</v>
       </c>
       <c r="M241">
         <v>42095</v>
@@ -11282,14 +11288,14 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>3</v>
+      <c r="J242" t="s">
+        <v>90</v>
       </c>
       <c r="K242" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>3548</v>
       </c>
       <c r="M242">
         <v>42097</v>
@@ -11326,14 +11332,14 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>3</v>
+      <c r="J243" t="s">
+        <v>90</v>
       </c>
       <c r="K243" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>3437</v>
       </c>
       <c r="M243">
         <v>42097</v>
@@ -11370,14 +11376,14 @@
       <c r="I244">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>3</v>
+      <c r="J244" t="s">
+        <v>91</v>
       </c>
       <c r="K244" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>8088</v>
       </c>
       <c r="M244">
         <v>42097</v>
@@ -11414,14 +11420,14 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245">
-        <v>3</v>
+      <c r="J245" t="s">
+        <v>91</v>
       </c>
       <c r="K245" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>1404</v>
       </c>
       <c r="M245">
         <v>42097</v>
@@ -11458,14 +11464,14 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3</v>
+      <c r="J246" t="s">
+        <v>91</v>
       </c>
       <c r="K246" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>2794</v>
       </c>
       <c r="M246">
         <v>42097</v>
@@ -11502,14 +11508,14 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>3</v>
+      <c r="J247" t="s">
+        <v>90</v>
       </c>
       <c r="K247" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>1752</v>
       </c>
       <c r="M247">
         <v>42099</v>
@@ -11546,14 +11552,14 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>3</v>
+      <c r="J248" t="s">
+        <v>90</v>
       </c>
       <c r="K248" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>1327</v>
       </c>
       <c r="M248">
         <v>42099</v>
@@ -11590,14 +11596,14 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>3</v>
+      <c r="J249" t="s">
+        <v>91</v>
       </c>
       <c r="K249" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>5425</v>
       </c>
       <c r="M249">
         <v>42099</v>
@@ -11634,14 +11640,14 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250">
-        <v>3</v>
+      <c r="J250" t="s">
+        <v>91</v>
       </c>
       <c r="K250" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>1059</v>
       </c>
       <c r="M250">
         <v>42099</v>
@@ -11678,14 +11684,14 @@
       <c r="I251">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>3</v>
+      <c r="J251" t="s">
+        <v>91</v>
       </c>
       <c r="K251" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>2711</v>
       </c>
       <c r="M251">
         <v>42099</v>
@@ -11722,14 +11728,14 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>3</v>
+      <c r="J252" t="s">
+        <v>90</v>
       </c>
       <c r="K252" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>125689</v>
       </c>
       <c r="M252">
         <v>42101</v>
@@ -11766,14 +11772,14 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253">
-        <v>3</v>
+      <c r="J253" t="s">
+        <v>90</v>
       </c>
       <c r="K253" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>212786</v>
       </c>
       <c r="M253">
         <v>42101</v>
@@ -11810,14 +11816,14 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>3</v>
+      <c r="J254" t="s">
+        <v>91</v>
       </c>
       <c r="K254" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>25025</v>
       </c>
       <c r="M254">
         <v>42101</v>
@@ -11854,14 +11860,14 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>3</v>
+      <c r="J255" t="s">
+        <v>91</v>
       </c>
       <c r="K255" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>9271</v>
       </c>
       <c r="M255">
         <v>42101</v>
@@ -11898,14 +11904,14 @@
       <c r="I256">
         <v>1</v>
       </c>
-      <c r="J256">
-        <v>3</v>
+      <c r="J256" t="s">
+        <v>91</v>
       </c>
       <c r="K256" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>7970</v>
       </c>
       <c r="M256">
         <v>42101</v>
@@ -11942,14 +11948,14 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>3</v>
+      <c r="J257" t="s">
+        <v>90</v>
       </c>
       <c r="K257" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>1885</v>
       </c>
       <c r="M257">
         <v>42103</v>
@@ -11986,14 +11992,14 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>3</v>
+      <c r="J258" t="s">
+        <v>90</v>
       </c>
       <c r="K258" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>2007</v>
       </c>
       <c r="M258">
         <v>42103</v>
@@ -12030,14 +12036,14 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>3</v>
+      <c r="J259" t="s">
+        <v>91</v>
       </c>
       <c r="K259" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>5188</v>
       </c>
       <c r="M259">
         <v>42103</v>
@@ -12074,14 +12080,14 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>3</v>
+      <c r="J260" t="s">
+        <v>91</v>
       </c>
       <c r="K260" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>777</v>
       </c>
       <c r="M260">
         <v>42103</v>
@@ -12118,14 +12124,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261">
-        <v>3</v>
+      <c r="J261" t="s">
+        <v>91</v>
       </c>
       <c r="K261" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>952</v>
       </c>
       <c r="M261">
         <v>42103</v>
@@ -12162,14 +12168,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>3</v>
+      <c r="J262" t="s">
+        <v>90</v>
       </c>
       <c r="K262" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>558</v>
       </c>
       <c r="M262">
         <v>42105</v>
@@ -12206,14 +12212,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>3</v>
+      <c r="J263" t="s">
+        <v>90</v>
       </c>
       <c r="K263" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>403</v>
       </c>
       <c r="M263">
         <v>42105</v>
@@ -12250,14 +12256,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
-        <v>3</v>
+      <c r="J264" t="s">
+        <v>91</v>
       </c>
       <c r="K264" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>2365</v>
       </c>
       <c r="M264">
         <v>42105</v>
@@ -12294,14 +12300,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265">
-        <v>3</v>
+      <c r="J265" t="s">
+        <v>91</v>
       </c>
       <c r="K265" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="M265">
         <v>42105</v>
@@ -12338,14 +12344,14 @@
       <c r="I266">
         <v>1</v>
       </c>
-      <c r="J266">
-        <v>3</v>
+      <c r="J266" t="s">
+        <v>91</v>
       </c>
       <c r="K266" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>707</v>
       </c>
       <c r="M266">
         <v>42105</v>
@@ -12382,14 +12388,14 @@
       <c r="I267">
         <v>1</v>
       </c>
-      <c r="J267">
-        <v>3</v>
+      <c r="J267" t="s">
+        <v>90</v>
       </c>
       <c r="K267" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>6041</v>
       </c>
       <c r="M267">
         <v>42107</v>
@@ -12426,14 +12432,14 @@
       <c r="I268">
         <v>1</v>
       </c>
-      <c r="J268">
-        <v>3</v>
+      <c r="J268" t="s">
+        <v>90</v>
       </c>
       <c r="K268" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>6534</v>
       </c>
       <c r="M268">
         <v>42107</v>
@@ -12470,14 +12476,14 @@
       <c r="I269">
         <v>1</v>
       </c>
-      <c r="J269">
-        <v>3</v>
+      <c r="J269" t="s">
+        <v>91</v>
       </c>
       <c r="K269" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>16801</v>
       </c>
       <c r="M269">
         <v>42107</v>
@@ -12514,14 +12520,14 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270">
-        <v>3</v>
+      <c r="J270" t="s">
+        <v>91</v>
       </c>
       <c r="K270" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>2343</v>
       </c>
       <c r="M270">
         <v>42107</v>
@@ -12558,14 +12564,14 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="J271">
-        <v>3</v>
+      <c r="J271" t="s">
+        <v>91</v>
       </c>
       <c r="K271" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>3084</v>
       </c>
       <c r="M271">
         <v>42107</v>
@@ -12602,14 +12608,14 @@
       <c r="I272">
         <v>1</v>
       </c>
-      <c r="J272">
-        <v>3</v>
+      <c r="J272" t="s">
+        <v>90</v>
       </c>
       <c r="K272" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>1081</v>
       </c>
       <c r="M272">
         <v>42109</v>
@@ -12646,14 +12652,14 @@
       <c r="I273">
         <v>1</v>
       </c>
-      <c r="J273">
-        <v>3</v>
+      <c r="J273" t="s">
+        <v>90</v>
       </c>
       <c r="K273" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>1126</v>
       </c>
       <c r="M273">
         <v>42109</v>
@@ -12690,14 +12696,14 @@
       <c r="I274">
         <v>1</v>
       </c>
-      <c r="J274">
-        <v>3</v>
+      <c r="J274" t="s">
+        <v>91</v>
       </c>
       <c r="K274" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>3746</v>
       </c>
       <c r="M274">
         <v>42109</v>
@@ -12734,14 +12740,14 @@
       <c r="I275">
         <v>1</v>
       </c>
-      <c r="J275">
-        <v>3</v>
+      <c r="J275" t="s">
+        <v>91</v>
       </c>
       <c r="K275" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L275">
-        <v>4</v>
+        <v>997</v>
       </c>
       <c r="M275">
         <v>42109</v>
@@ -12778,14 +12784,14 @@
       <c r="I276">
         <v>1</v>
       </c>
-      <c r="J276">
-        <v>3</v>
+      <c r="J276" t="s">
+        <v>91</v>
       </c>
       <c r="K276" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>2035</v>
       </c>
       <c r="M276">
         <v>42109</v>
@@ -12822,14 +12828,14 @@
       <c r="I277">
         <v>1</v>
       </c>
-      <c r="J277">
-        <v>3</v>
+      <c r="J277" t="s">
+        <v>90</v>
       </c>
       <c r="K277" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>3206</v>
       </c>
       <c r="M277">
         <v>42111</v>
@@ -12866,14 +12872,14 @@
       <c r="I278">
         <v>1</v>
       </c>
-      <c r="J278">
-        <v>3</v>
+      <c r="J278" t="s">
+        <v>90</v>
       </c>
       <c r="K278" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>3113</v>
       </c>
       <c r="M278">
         <v>42111</v>
@@ -12910,14 +12916,14 @@
       <c r="I279">
         <v>1</v>
       </c>
-      <c r="J279">
-        <v>3</v>
+      <c r="J279" t="s">
+        <v>91</v>
       </c>
       <c r="K279" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>9063</v>
       </c>
       <c r="M279">
         <v>42111</v>
@@ -12954,14 +12960,14 @@
       <c r="I280">
         <v>1</v>
       </c>
-      <c r="J280">
-        <v>3</v>
+      <c r="J280" t="s">
+        <v>91</v>
       </c>
       <c r="K280" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L280">
-        <v>4</v>
+        <v>1541</v>
       </c>
       <c r="M280">
         <v>42111</v>
@@ -12998,14 +13004,14 @@
       <c r="I281">
         <v>1</v>
       </c>
-      <c r="J281">
-        <v>3</v>
+      <c r="J281" t="s">
+        <v>91</v>
       </c>
       <c r="K281" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L281">
-        <v>4</v>
+        <v>3159</v>
       </c>
       <c r="M281">
         <v>42111</v>
@@ -13042,14 +13048,14 @@
       <c r="I282">
         <v>1</v>
       </c>
-      <c r="J282">
-        <v>3</v>
+      <c r="J282" t="s">
+        <v>90</v>
       </c>
       <c r="K282" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="M282">
         <v>42113</v>
@@ -13086,14 +13092,14 @@
       <c r="I283">
         <v>1</v>
       </c>
-      <c r="J283">
-        <v>3</v>
+      <c r="J283" t="s">
+        <v>90</v>
       </c>
       <c r="K283" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L283">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="M283">
         <v>42113</v>
@@ -13130,14 +13136,14 @@
       <c r="I284">
         <v>1</v>
       </c>
-      <c r="J284">
-        <v>3</v>
+      <c r="J284" t="s">
+        <v>91</v>
       </c>
       <c r="K284" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L284">
-        <v>4</v>
+        <v>841</v>
       </c>
       <c r="M284">
         <v>42113</v>
@@ -13174,14 +13180,14 @@
       <c r="I285">
         <v>1</v>
       </c>
-      <c r="J285">
-        <v>3</v>
+      <c r="J285" t="s">
+        <v>91</v>
       </c>
       <c r="K285" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="M285">
         <v>42113</v>
@@ -13218,14 +13224,14 @@
       <c r="I286">
         <v>1</v>
       </c>
-      <c r="J286">
-        <v>3</v>
+      <c r="J286" t="s">
+        <v>91</v>
       </c>
       <c r="K286" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L286">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="M286">
         <v>42113</v>
@@ -13262,14 +13268,14 @@
       <c r="I287">
         <v>1</v>
       </c>
-      <c r="J287">
-        <v>3</v>
+      <c r="J287" t="s">
+        <v>90</v>
       </c>
       <c r="K287" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L287">
-        <v>4</v>
+        <v>1603</v>
       </c>
       <c r="M287">
         <v>42115</v>
@@ -13306,14 +13312,14 @@
       <c r="I288">
         <v>1</v>
       </c>
-      <c r="J288">
-        <v>3</v>
+      <c r="J288" t="s">
+        <v>90</v>
       </c>
       <c r="K288" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L288">
-        <v>4</v>
+        <v>1681</v>
       </c>
       <c r="M288">
         <v>42115</v>
@@ -13350,14 +13356,14 @@
       <c r="I289">
         <v>1</v>
       </c>
-      <c r="J289">
-        <v>3</v>
+      <c r="J289" t="s">
+        <v>91</v>
       </c>
       <c r="K289" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L289">
-        <v>4</v>
+        <v>5028</v>
       </c>
       <c r="M289">
         <v>42115</v>
@@ -13394,14 +13400,14 @@
       <c r="I290">
         <v>1</v>
       </c>
-      <c r="J290">
-        <v>3</v>
+      <c r="J290" t="s">
+        <v>91</v>
       </c>
       <c r="K290" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L290">
-        <v>4</v>
+        <v>1041</v>
       </c>
       <c r="M290">
         <v>42115</v>
@@ -13438,14 +13444,14 @@
       <c r="I291">
         <v>1</v>
       </c>
-      <c r="J291">
-        <v>3</v>
+      <c r="J291" t="s">
+        <v>91</v>
       </c>
       <c r="K291" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L291">
-        <v>4</v>
+        <v>2062</v>
       </c>
       <c r="M291">
         <v>42115</v>
@@ -13482,14 +13488,14 @@
       <c r="I292">
         <v>1</v>
       </c>
-      <c r="J292">
-        <v>3</v>
+      <c r="J292" t="s">
+        <v>90</v>
       </c>
       <c r="K292" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>1265</v>
       </c>
       <c r="M292">
         <v>42117</v>
@@ -13526,14 +13532,14 @@
       <c r="I293">
         <v>1</v>
       </c>
-      <c r="J293">
-        <v>3</v>
+      <c r="J293" t="s">
+        <v>90</v>
       </c>
       <c r="K293" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L293">
-        <v>4</v>
+        <v>992</v>
       </c>
       <c r="M293">
         <v>42117</v>
@@ -13570,14 +13576,14 @@
       <c r="I294">
         <v>1</v>
       </c>
-      <c r="J294">
-        <v>3</v>
+      <c r="J294" t="s">
+        <v>91</v>
       </c>
       <c r="K294" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L294">
-        <v>4</v>
+        <v>4422</v>
       </c>
       <c r="M294">
         <v>42117</v>
@@ -13614,14 +13620,14 @@
       <c r="I295">
         <v>1</v>
       </c>
-      <c r="J295">
-        <v>3</v>
+      <c r="J295" t="s">
+        <v>91</v>
       </c>
       <c r="K295" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>1056</v>
       </c>
       <c r="M295">
         <v>42117</v>
@@ -13658,14 +13664,14 @@
       <c r="I296">
         <v>1</v>
       </c>
-      <c r="J296">
-        <v>3</v>
+      <c r="J296" t="s">
+        <v>91</v>
       </c>
       <c r="K296" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L296">
-        <v>4</v>
+        <v>1529</v>
       </c>
       <c r="M296">
         <v>42117</v>
@@ -13702,14 +13708,14 @@
       <c r="I297">
         <v>1</v>
       </c>
-      <c r="J297">
-        <v>3</v>
+      <c r="J297" t="s">
+        <v>90</v>
       </c>
       <c r="K297" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L297">
-        <v>4</v>
+        <v>1520</v>
       </c>
       <c r="M297">
         <v>42119</v>
@@ -13746,14 +13752,14 @@
       <c r="I298">
         <v>1</v>
       </c>
-      <c r="J298">
-        <v>3</v>
+      <c r="J298" t="s">
+        <v>90</v>
       </c>
       <c r="K298" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L298">
-        <v>4</v>
+        <v>1549</v>
       </c>
       <c r="M298">
         <v>42119</v>
@@ -13790,14 +13796,14 @@
       <c r="I299">
         <v>1</v>
       </c>
-      <c r="J299">
-        <v>3</v>
+      <c r="J299" t="s">
+        <v>91</v>
       </c>
       <c r="K299" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L299">
-        <v>4</v>
+        <v>3350</v>
       </c>
       <c r="M299">
         <v>42119</v>
@@ -13834,14 +13840,14 @@
       <c r="I300">
         <v>1</v>
       </c>
-      <c r="J300">
-        <v>3</v>
+      <c r="J300" t="s">
+        <v>91</v>
       </c>
       <c r="K300" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L300">
-        <v>4</v>
+        <v>977</v>
       </c>
       <c r="M300">
         <v>42119</v>
@@ -13878,14 +13884,14 @@
       <c r="I301">
         <v>1</v>
       </c>
-      <c r="J301">
-        <v>3</v>
+      <c r="J301" t="s">
+        <v>91</v>
       </c>
       <c r="K301" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L301">
-        <v>4</v>
+        <v>1890</v>
       </c>
       <c r="M301">
         <v>42119</v>
@@ -13922,14 +13928,14 @@
       <c r="I302">
         <v>1</v>
       </c>
-      <c r="J302">
-        <v>3</v>
+      <c r="J302" t="s">
+        <v>90</v>
       </c>
       <c r="K302" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L302">
-        <v>4</v>
+        <v>2006</v>
       </c>
       <c r="M302">
         <v>42121</v>
@@ -13966,14 +13972,14 @@
       <c r="I303">
         <v>1</v>
       </c>
-      <c r="J303">
-        <v>3</v>
+      <c r="J303" t="s">
+        <v>90</v>
       </c>
       <c r="K303" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L303">
-        <v>4</v>
+        <v>1936</v>
       </c>
       <c r="M303">
         <v>42121</v>
@@ -14010,14 +14016,14 @@
       <c r="I304">
         <v>1</v>
       </c>
-      <c r="J304">
-        <v>3</v>
+      <c r="J304" t="s">
+        <v>91</v>
       </c>
       <c r="K304" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L304">
-        <v>4</v>
+        <v>4809</v>
       </c>
       <c r="M304">
         <v>42121</v>
@@ -14054,14 +14060,14 @@
       <c r="I305">
         <v>1</v>
       </c>
-      <c r="J305">
-        <v>3</v>
+      <c r="J305" t="s">
+        <v>91</v>
       </c>
       <c r="K305" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L305">
-        <v>4</v>
+        <v>1268</v>
       </c>
       <c r="M305">
         <v>42121</v>
@@ -14098,14 +14104,14 @@
       <c r="I306">
         <v>1</v>
       </c>
-      <c r="J306">
-        <v>3</v>
+      <c r="J306" t="s">
+        <v>91</v>
       </c>
       <c r="K306" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L306">
-        <v>4</v>
+        <v>2310</v>
       </c>
       <c r="M306">
         <v>42121</v>
@@ -14142,14 +14148,14 @@
       <c r="I307">
         <v>1</v>
       </c>
-      <c r="J307">
-        <v>3</v>
+      <c r="J307" t="s">
+        <v>90</v>
       </c>
       <c r="K307" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L307">
-        <v>4</v>
+        <v>1583</v>
       </c>
       <c r="M307">
         <v>42123</v>
@@ -14186,14 +14192,14 @@
       <c r="I308">
         <v>1</v>
       </c>
-      <c r="J308">
-        <v>3</v>
+      <c r="J308" t="s">
+        <v>90</v>
       </c>
       <c r="K308" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>1754</v>
       </c>
       <c r="M308">
         <v>42123</v>
@@ -14230,14 +14236,14 @@
       <c r="I309">
         <v>1</v>
       </c>
-      <c r="J309">
-        <v>3</v>
+      <c r="J309" t="s">
+        <v>91</v>
       </c>
       <c r="K309" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>3659</v>
       </c>
       <c r="M309">
         <v>42123</v>
@@ -14274,14 +14280,14 @@
       <c r="I310">
         <v>1</v>
       </c>
-      <c r="J310">
-        <v>3</v>
+      <c r="J310" t="s">
+        <v>91</v>
       </c>
       <c r="K310" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>1115</v>
       </c>
       <c r="M310">
         <v>42123</v>
@@ -14318,14 +14324,14 @@
       <c r="I311">
         <v>1</v>
       </c>
-      <c r="J311">
-        <v>3</v>
+      <c r="J311" t="s">
+        <v>91</v>
       </c>
       <c r="K311" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L311">
-        <v>4</v>
+        <v>1643</v>
       </c>
       <c r="M311">
         <v>42123</v>
@@ -14362,14 +14368,14 @@
       <c r="I312">
         <v>1</v>
       </c>
-      <c r="J312">
-        <v>3</v>
+      <c r="J312" t="s">
+        <v>90</v>
       </c>
       <c r="K312" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L312">
-        <v>4</v>
+        <v>11014</v>
       </c>
       <c r="M312">
         <v>42125</v>
@@ -14406,14 +14412,14 @@
       <c r="I313">
         <v>1</v>
       </c>
-      <c r="J313">
-        <v>3</v>
+      <c r="J313" t="s">
+        <v>90</v>
       </c>
       <c r="K313" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L313">
-        <v>4</v>
+        <v>15391</v>
       </c>
       <c r="M313">
         <v>42125</v>
@@ -14450,14 +14456,14 @@
       <c r="I314">
         <v>1</v>
       </c>
-      <c r="J314">
-        <v>3</v>
+      <c r="J314" t="s">
+        <v>91</v>
       </c>
       <c r="K314" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L314">
-        <v>4</v>
+        <v>15934</v>
       </c>
       <c r="M314">
         <v>42125</v>
@@ -14494,14 +14500,14 @@
       <c r="I315">
         <v>1</v>
       </c>
-      <c r="J315">
-        <v>3</v>
+      <c r="J315" t="s">
+        <v>91</v>
       </c>
       <c r="K315" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L315">
-        <v>4</v>
+        <v>4503</v>
       </c>
       <c r="M315">
         <v>42125</v>
@@ -14538,14 +14544,14 @@
       <c r="I316">
         <v>1</v>
       </c>
-      <c r="J316">
-        <v>3</v>
+      <c r="J316" t="s">
+        <v>91</v>
       </c>
       <c r="K316" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>5296</v>
       </c>
       <c r="M316">
         <v>42125</v>
@@ -14582,14 +14588,14 @@
       <c r="I317">
         <v>1</v>
       </c>
-      <c r="J317">
-        <v>3</v>
+      <c r="J317" t="s">
+        <v>90</v>
       </c>
       <c r="K317" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L317">
-        <v>4</v>
+        <v>2011</v>
       </c>
       <c r="M317">
         <v>42127</v>
@@ -14626,14 +14632,14 @@
       <c r="I318">
         <v>1</v>
       </c>
-      <c r="J318">
-        <v>3</v>
+      <c r="J318" t="s">
+        <v>90</v>
       </c>
       <c r="K318" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L318">
-        <v>4</v>
+        <v>1843</v>
       </c>
       <c r="M318">
         <v>42127</v>
@@ -14670,14 +14676,14 @@
       <c r="I319">
         <v>1</v>
       </c>
-      <c r="J319">
-        <v>3</v>
+      <c r="J319" t="s">
+        <v>91</v>
       </c>
       <c r="K319" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L319">
-        <v>4</v>
+        <v>6365</v>
       </c>
       <c r="M319">
         <v>42127</v>
@@ -14714,14 +14720,14 @@
       <c r="I320">
         <v>1</v>
       </c>
-      <c r="J320">
-        <v>3</v>
+      <c r="J320" t="s">
+        <v>91</v>
       </c>
       <c r="K320" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L320">
-        <v>4</v>
+        <v>949</v>
       </c>
       <c r="M320">
         <v>42127</v>
@@ -14758,14 +14764,14 @@
       <c r="I321">
         <v>1</v>
       </c>
-      <c r="J321">
-        <v>3</v>
+      <c r="J321" t="s">
+        <v>91</v>
       </c>
       <c r="K321" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L321">
-        <v>4</v>
+        <v>1856</v>
       </c>
       <c r="M321">
         <v>42127</v>
@@ -14802,14 +14808,14 @@
       <c r="I322">
         <v>1</v>
       </c>
-      <c r="J322">
-        <v>3</v>
+      <c r="J322" t="s">
+        <v>90</v>
       </c>
       <c r="K322" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L322">
-        <v>4</v>
+        <v>20234</v>
       </c>
       <c r="M322">
         <v>42129</v>
@@ -14846,14 +14852,14 @@
       <c r="I323">
         <v>1</v>
       </c>
-      <c r="J323">
-        <v>3</v>
+      <c r="J323" t="s">
+        <v>90</v>
       </c>
       <c r="K323" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>24969</v>
       </c>
       <c r="M323">
         <v>42129</v>
@@ -14890,14 +14896,14 @@
       <c r="I324">
         <v>1</v>
       </c>
-      <c r="J324">
-        <v>3</v>
+      <c r="J324" t="s">
+        <v>91</v>
       </c>
       <c r="K324" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L324">
-        <v>4</v>
+        <v>32146</v>
       </c>
       <c r="M324">
         <v>42129</v>
@@ -14934,14 +14940,14 @@
       <c r="I325">
         <v>1</v>
       </c>
-      <c r="J325">
-        <v>3</v>
+      <c r="J325" t="s">
+        <v>91</v>
       </c>
       <c r="K325" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L325">
-        <v>4</v>
+        <v>8478</v>
       </c>
       <c r="M325">
         <v>42129</v>
@@ -14978,14 +14984,14 @@
       <c r="I326">
         <v>1</v>
       </c>
-      <c r="J326">
-        <v>3</v>
+      <c r="J326" t="s">
+        <v>91</v>
       </c>
       <c r="K326" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L326">
-        <v>4</v>
+        <v>10472</v>
       </c>
       <c r="M326">
         <v>42129</v>
@@ -15022,14 +15028,14 @@
       <c r="I327">
         <v>1</v>
       </c>
-      <c r="J327">
-        <v>3</v>
+      <c r="J327" t="s">
+        <v>90</v>
       </c>
       <c r="K327" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L327">
-        <v>4</v>
+        <v>1169</v>
       </c>
       <c r="M327">
         <v>42131</v>
@@ -15066,14 +15072,14 @@
       <c r="I328">
         <v>1</v>
       </c>
-      <c r="J328">
-        <v>3</v>
+      <c r="J328" t="s">
+        <v>90</v>
       </c>
       <c r="K328" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L328">
-        <v>4</v>
+        <v>1124</v>
       </c>
       <c r="M328">
         <v>42131</v>
@@ -15110,14 +15116,14 @@
       <c r="I329">
         <v>1</v>
       </c>
-      <c r="J329">
-        <v>3</v>
+      <c r="J329" t="s">
+        <v>91</v>
       </c>
       <c r="K329" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L329">
-        <v>4</v>
+        <v>3548</v>
       </c>
       <c r="M329">
         <v>42131</v>
@@ -15154,14 +15160,14 @@
       <c r="I330">
         <v>1</v>
       </c>
-      <c r="J330">
-        <v>3</v>
+      <c r="J330" t="s">
+        <v>91</v>
       </c>
       <c r="K330" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L330">
-        <v>4</v>
+        <v>599</v>
       </c>
       <c r="M330">
         <v>42131</v>
@@ -15198,14 +15204,14 @@
       <c r="I331">
         <v>1</v>
       </c>
-      <c r="J331">
-        <v>3</v>
+      <c r="J331" t="s">
+        <v>91</v>
       </c>
       <c r="K331" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L331">
-        <v>4</v>
+        <v>1065</v>
       </c>
       <c r="M331">
         <v>42131</v>
@@ -15242,14 +15248,14 @@
       <c r="I332">
         <v>1</v>
       </c>
-      <c r="J332">
-        <v>3</v>
+      <c r="J332" t="s">
+        <v>90</v>
       </c>
       <c r="K332" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L332">
-        <v>4</v>
+        <v>17534</v>
       </c>
       <c r="M332">
         <v>42133</v>
@@ -15286,14 +15292,14 @@
       <c r="I333">
         <v>1</v>
       </c>
-      <c r="J333">
-        <v>3</v>
+      <c r="J333" t="s">
+        <v>90</v>
       </c>
       <c r="K333" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L333">
-        <v>4</v>
+        <v>18446</v>
       </c>
       <c r="M333">
         <v>42133</v>
@@ -15330,14 +15336,14 @@
       <c r="I334">
         <v>1</v>
       </c>
-      <c r="J334">
-        <v>3</v>
+      <c r="J334" t="s">
+        <v>91</v>
       </c>
       <c r="K334" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L334">
-        <v>4</v>
+        <v>41949</v>
       </c>
       <c r="M334">
         <v>42133</v>
@@ -15374,14 +15380,14 @@
       <c r="I335">
         <v>1</v>
       </c>
-      <c r="J335">
-        <v>3</v>
+      <c r="J335" t="s">
+        <v>91</v>
       </c>
       <c r="K335" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L335">
-        <v>4</v>
+        <v>10391</v>
       </c>
       <c r="M335">
         <v>42133</v>
@@ -15418,14 +15424,14 @@
       <c r="I336">
         <v>1</v>
       </c>
-      <c r="J336">
-        <v>3</v>
+      <c r="J336" t="s">
+        <v>91</v>
       </c>
       <c r="K336" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L336">
-        <v>4</v>
+        <v>17107</v>
       </c>
       <c r="M336">
         <v>42133</v>
